--- a/biology/Botanique/Pachystachys_coccinea/Pachystachys_coccinea.xlsx
+++ b/biology/Botanique/Pachystachys_coccinea/Pachystachys_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachystachys coccinea est une espèce d'arbustes à feuillage persistant du genre Pachystachys de la famille des Acanthaceae. 
-En Guyane, où elle est commune dans les sous-bois des vieilles forêts secondaires, elle est connue sous le nom de Carmantine rouge (Créole)[4].
+En Guyane, où elle est commune dans les sous-bois des vieilles forêts secondaires, elle est connue sous le nom de Carmantine rouge (Créole).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pachystachys coccinea a le statut d'espèce déterminante ZNIEFF en Guyane[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pachystachys coccinea a le statut d'espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fusée-Aublet la décrit pour la première fois en latin, en 1775, dans le premier volume de son « Histoire des plantes de la Guiane françoise » (page 10), sous le nom de  Justicia coccinea. 
-Esenbeck l’a reclassifié sous son nom définitif en 1847, publié dans le « Prodromus Systematis Naturalis Regni Vegetabilis » de de Candolle (volume 11 page 319) [6] .
+Esenbeck l’a reclassifié sous son nom définitif en 1847, publié dans le « Prodromus Systematis Naturalis Regni Vegetabilis » de de Candolle (volume 11 page 319)  .
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut être utilisée comme arbuste ornemental.
-Elle était autrefois considéré en Guyane comme un « excellent stomachique amer à étudier »[7].
+Elle était autrefois considéré en Guyane comme un « excellent stomachique amer à étudier ».
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[8] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « La Carmantine rouge.
 Cette plante pousse des tiges cylindriques, simples, droites, hautes d'environ six pieds, garnies de feuilles opposées, disposées en croix, ovales, vertes, lisses, molles, terminées par une longue pointe, et portées sur un long pédicule grêle de couleur violette. Les plus grandes feuilles ont dix pouces de longueur, sur trois et demi de largeur: elles sont partagées, depuis leur base jusqu'à  leur extrémité, par une nervure saillante, de laquelle partent des rameaux qui, en se courbant, s'étendent jusqu'au bord.
 Les fleurs naissent à l'extrémité des tiges, et sont portées sur un long épi, deux a deux, opposées, et quelquefois quatre à quatre: elles sortent chacune de l’aisselle d'une petite feuille qui est ovale, droite, et appliquée sur la partie intérieure de la fleur qu'elle cache.
